--- a/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-09T09:46:28+00:00</t>
+    <t>2025-08-01T06:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:40:58+00:00</t>
+    <t>2025-08-21T09:52:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T09:52:50+00:00</t>
+    <t>2025-11-14T15:31:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T15:31:38+00:00</t>
+    <t>2025-12-03T08:52:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T08:52:56+00:00</t>
+    <t>2025-12-19T08:24:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:24:59+00:00</t>
+    <t>2025-12-23T15:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
